--- a/PRACTO1.xlsx
+++ b/PRACTO1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/dyama-akitha-devi_dyama-akitha-devi_capgemini_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="8_{2578DCB5-8BC8-4A64-8442-8CFAB650B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{613B4CD3-B028-4436-9D9D-DC5AF846218A}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="8_{2578DCB5-8BC8-4A64-8442-8CFAB650B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF6941D-52EB-4141-B660-304C412395FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{99F79366-062A-434C-AF2C-1221FDE1B3EE}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Test cases" sheetId="3" r:id="rId3"/>
     <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
     <sheet name="RTM" sheetId="5" r:id="rId5"/>
+    <sheet name="Execution Summary" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="209">
   <si>
     <t>Test ScenarioID</t>
   </si>
@@ -227,9 +228,6 @@
     <t>Validate Lab Tests link navigation</t>
   </si>
   <si>
-    <t>Website URL</t>
-  </si>
-  <si>
     <t>User should be navigated to Lab Tests page</t>
   </si>
   <si>
@@ -581,15 +579,9 @@
     <t>Status</t>
   </si>
   <si>
-    <t>DF_LabTests_01</t>
-  </si>
-  <si>
     <t>Lab Tests</t>
   </si>
   <si>
-    <t>Lab Tests link on homepage redirects to wrong page</t>
-  </si>
-  <si>
     <t>qa_team@company.com</t>
   </si>
   <si>
@@ -602,33 +594,9 @@
     <t>Search with invalid test name shows error page instead of 'No results found'</t>
   </si>
   <si>
-    <t>DF_TopBooked_01</t>
-  </si>
-  <si>
-    <t>Top Booked Tests</t>
-  </si>
-  <si>
-    <t>Top Booked Tests section not visible on homepage</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>DF_TopBooked_02</t>
-  </si>
-  <si>
-    <t>'Add to Cart' button not responsive</t>
-  </si>
-  <si>
-    <t>DF_HealthPkg_01</t>
-  </si>
-  <si>
     <t>Health Packages</t>
   </si>
   <si>
-    <t>Category filter displays all packages instead of selected category</t>
-  </si>
-  <si>
     <t>DF_HealthPkg_02</t>
   </si>
   <si>
@@ -653,35 +621,86 @@
     <t>DR_ID</t>
   </si>
   <si>
+    <t>TR_LabTests_01</t>
+  </si>
+  <si>
+    <t>TR_TopBooked_01</t>
+  </si>
+  <si>
+    <t>TR_HealthPkg_01</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>LabTests</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Total Passed</t>
+  </si>
+  <si>
+    <t>Total Failed</t>
+  </si>
+  <si>
+    <t>Total Excecuted</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail Percentage</t>
+  </si>
+  <si>
+    <t>Compilation Percentage</t>
+  </si>
+  <si>
+    <t>Practo</t>
+  </si>
+  <si>
+    <t>Lab_Tests</t>
+  </si>
+  <si>
+    <t>BR_LabTests_01</t>
+  </si>
+  <si>
+    <t>BR_TopBooked_01</t>
+  </si>
+  <si>
+    <t>BR_HealthPkg_01</t>
+  </si>
+  <si>
+    <t>Test Execution Summary</t>
+  </si>
+  <si>
+    <t>Issue_ID</t>
+  </si>
+  <si>
     <t>US_LabTests_01</t>
   </si>
   <si>
-    <t>TR_LabTests_01</t>
-  </si>
-  <si>
-    <t>US_TopBooked_01</t>
-  </si>
-  <si>
-    <t>TR_TopBooked_01</t>
-  </si>
-  <si>
-    <t>US_HealthPkg_01</t>
-  </si>
-  <si>
-    <t>TR_HealthPkg_01</t>
-  </si>
-  <si>
-    <t>EPIC</t>
-  </si>
-  <si>
-    <t>LabTests</t>
+    <t>US_LabTests_02</t>
+  </si>
+  <si>
+    <t>US_LabTests_03</t>
+  </si>
+  <si>
+    <t>URL: https://practo.com/</t>
+  </si>
+  <si>
+    <t>Defect severity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,8 +730,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,8 +750,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -734,31 +765,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,18 +815,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609B8372-625F-45DC-B530-23E12160C6ED}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -1139,232 +1178,289 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
-    <col min="2" max="2" width="136.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="136.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" s="11" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="23" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1374,7 +1470,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1387,23 +1483,23 @@
     <col min="6" max="6" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1423,7 +1519,7 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1434,7 +1530,7 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1443,7 +1539,7 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1463,7 +1559,7 @@
       <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1477,13 +1573,13 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.90625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="26.90625" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="5" customWidth="1"/>
     <col min="3" max="3" width="29.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.1796875" bestFit="1" customWidth="1"/>
@@ -1491,514 +1587,514 @@
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="31.453125" customWidth="1"/>
     <col min="9" max="9" width="20.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:10" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="D6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="J15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9EA937-4A74-43CF-869E-27D51DB51870}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2019,149 +2115,78 @@
     <col min="1" max="1" width="17.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.36328125" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="G2" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" t="s">
         <v>172</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2199,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2187,307 +2212,388 @@
     <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943250E7-72C6-4878-A633-287356E080FE}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G2" s="18" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="H2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="I2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B3" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.1333</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
